--- a/results/changing-meta-3.1.xlsx
+++ b/results/changing-meta-3.1.xlsx
@@ -1,46 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\tradingbot-pws\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8666F8F3-07C0-4F74-A91F-788270AF59D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>episode \ parameter</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -59,22 +46,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -362,1325 +408,1331 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col width="10.42578125" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>episode \ parameter</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>401.37999999999988</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="n">
+        <v>401.3799999999999</v>
+      </c>
+      <c r="C2" t="n">
         <v>0.97</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="1" t="n">
         <v>44186</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>151.75540000000001</v>
-      </c>
-      <c r="C3">
-        <v>0.94089999999999996</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3" t="n">
+        <v>151.7554</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9409</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>41516</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>-51.060000000000031</v>
-      </c>
-      <c r="C4">
-        <v>0.91267299999999996</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B4" t="n">
+        <v>-51.06000000000003</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.912673</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>42949</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>-71.919999999999902</v>
-      </c>
-      <c r="C5">
-        <v>0.88529280999999993</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B5" t="n">
+        <v>-71.9199999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8852928099999999</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>43565</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>271.36020000000002</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="n">
+        <v>271.3602</v>
+      </c>
+      <c r="C6" t="n">
         <v>0.8587340256999999</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="n">
         <v>41439</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>106.7450000000001</v>
       </c>
-      <c r="C7">
-        <v>0.83297200492899992</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" t="n">
+        <v>0.8329720049289999</v>
+      </c>
+      <c r="D7" s="1" t="n">
         <v>42292</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>90.82999999999997</v>
       </c>
-      <c r="C8">
-        <v>0.80798284478112992</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" t="n">
+        <v>0.8079828447811299</v>
+      </c>
+      <c r="D8" s="1" t="n">
         <v>43261</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>592.83999999999992</v>
-      </c>
-      <c r="C9">
-        <v>0.78374335943769602</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B9" t="n">
+        <v>592.8399999999999</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.783743359437696</v>
+      </c>
+      <c r="D9" s="1" t="n">
         <v>43659</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>-18.16999999999997</v>
       </c>
-      <c r="C10">
-        <v>0.76023105865456508</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" t="n">
+        <v>0.7602310586545651</v>
+      </c>
+      <c r="D10" s="1" t="n">
         <v>43375</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>-33.229999999999961</v>
-      </c>
-      <c r="C11">
-        <v>0.73742412689492809</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B11" t="n">
+        <v>-33.22999999999996</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7374241268949281</v>
+      </c>
+      <c r="D11" s="1" t="n">
         <v>43457</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>-148.62000000000009</v>
-      </c>
-      <c r="C12">
-        <v>0.71530140308808021</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="B12" t="n">
+        <v>-148.6200000000001</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7153014030880802</v>
+      </c>
+      <c r="D12" s="1" t="n">
         <v>44403</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>-80.669999999999817</v>
-      </c>
-      <c r="C13">
-        <v>0.69384236099543783</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="B13" t="n">
+        <v>-80.66999999999982</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6938423609954378</v>
+      </c>
+      <c r="D13" s="1" t="n">
         <v>43796</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>26.62380000000001</v>
       </c>
-      <c r="C14">
-        <v>0.67302709016557472</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" t="n">
+        <v>0.6730270901655747</v>
+      </c>
+      <c r="D14" s="1" t="n">
         <v>41429</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>-23.920000000000091</v>
-      </c>
-      <c r="C15">
-        <v>0.65283627746060746</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="B15" t="n">
+        <v>-23.92000000000009</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6528362774606075</v>
+      </c>
+      <c r="D15" s="1" t="n">
         <v>43252</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>56.750000000000028</v>
-      </c>
-      <c r="C16">
-        <v>0.63325118913678924</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="B16" t="n">
+        <v>56.75000000000003</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.6332511891367892</v>
+      </c>
+      <c r="D16" s="1" t="n">
         <v>42907</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>18.500000000000039</v>
-      </c>
-      <c r="C17">
-        <v>0.61425365346268557</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="B17" t="n">
+        <v>18.50000000000004</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6142536534626856</v>
+      </c>
+      <c r="D17" s="1" t="n">
         <v>42673</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>127.9345</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>0.595826043858805</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="1" t="n">
         <v>41662</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>251.95</v>
       </c>
-      <c r="C19">
-        <v>0.57795126254304086</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C19" t="n">
+        <v>0.5779512625430409</v>
+      </c>
+      <c r="D19" s="1" t="n">
         <v>42196</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>29.67309999999998</v>
       </c>
-      <c r="C20">
-        <v>0.56061272466674961</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C20" t="n">
+        <v>0.5606127246667496</v>
+      </c>
+      <c r="D20" s="1" t="n">
         <v>41457</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>-12.279999999999969</v>
-      </c>
-      <c r="C21">
-        <v>0.54379434292674711</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="B21" t="n">
+        <v>-12.27999999999997</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5437943429267471</v>
+      </c>
+      <c r="D21" s="1" t="n">
         <v>43133</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22">
+      <c r="A22" t="n">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>4.5693000000000268</v>
-      </c>
-      <c r="C22">
-        <v>0.52748051263894469</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="B22" t="n">
+        <v>4.569300000000027</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5274805126389447</v>
+      </c>
+      <c r="D22" s="1" t="n">
         <v>41536</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" t="n">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>6.3100000000000307</v>
-      </c>
-      <c r="C23">
-        <v>0.51165609725977634</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="B23" t="n">
+        <v>6.310000000000031</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5116560972597763</v>
+      </c>
+      <c r="D23" s="1" t="n">
         <v>43288</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" t="n">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>17.354999999999901</v>
-      </c>
-      <c r="C24">
-        <v>0.49630641434198303</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="B24" t="n">
+        <v>17.3549999999999</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.496306414341983</v>
+      </c>
+      <c r="D24" s="1" t="n">
         <v>43988</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25">
+      <c r="A25" t="n">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>-5.4647999999999746</v>
-      </c>
-      <c r="C25">
-        <v>0.48141722191172348</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="B25" t="n">
+        <v>-5.464799999999975</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.4814172219117235</v>
+      </c>
+      <c r="D25" s="1" t="n">
         <v>41762</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26">
+      <c r="A26" t="n">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>7.9000000000000057</v>
-      </c>
-      <c r="C26">
-        <v>0.46697470525437179</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="B26" t="n">
+        <v>7.900000000000006</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.4669747052543718</v>
+      </c>
+      <c r="D26" s="1" t="n">
         <v>42086</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27">
+      <c r="A27" t="n">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>-133.29000000000011</v>
-      </c>
-      <c r="C27">
+      <c r="B27" t="n">
+        <v>-133.2900000000001</v>
+      </c>
+      <c r="C27" t="n">
         <v>0.4529654640967406</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="1" t="n">
         <v>42843</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28">
+      <c r="A28" t="n">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>354.75499999999971</v>
-      </c>
-      <c r="C28">
-        <v>0.43937650017383839</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="B28" t="n">
+        <v>354.7549999999997</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.4393765001738384</v>
+      </c>
+      <c r="D28" s="1" t="n">
         <v>42296</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29">
+      <c r="A29" t="n">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>8.9799999999999898</v>
-      </c>
-      <c r="C29">
-        <v>0.42619520516862319</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="B29" t="n">
+        <v>8.97999999999999</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.4261952051686232</v>
+      </c>
+      <c r="D29" s="1" t="n">
         <v>42554</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30">
+      <c r="A30" t="n">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>30.76499999999994</v>
       </c>
-      <c r="C30">
-        <v>0.41340934901356452</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="C30" t="n">
+        <v>0.4134093490135645</v>
+      </c>
+      <c r="D30" s="1" t="n">
         <v>41867</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31">
+      <c r="A31" t="n">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>25.599999999999991</v>
-      </c>
-      <c r="C31">
+      <c r="B31" t="n">
+        <v>25.59999999999999</v>
+      </c>
+      <c r="C31" t="n">
         <v>0.4010070685431576</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="1" t="n">
         <v>42795</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32">
+      <c r="A32" t="n">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>5.649999999999622E-2</v>
-      </c>
-      <c r="C32">
-        <v>0.38897685648686292</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="B32" t="n">
+        <v>0.05649999999999622</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.3889768564868629</v>
+      </c>
+      <c r="D32" s="1" t="n">
         <v>41275</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33">
+      <c r="A33" t="n">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>26.030000000000019</v>
-      </c>
-      <c r="C33">
-        <v>0.37730755079225697</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="B33" t="n">
+        <v>26.03000000000002</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.377307550792257</v>
+      </c>
+      <c r="D33" s="1" t="n">
         <v>42316</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34">
+      <c r="A34" t="n">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>7.0600000000000307</v>
-      </c>
-      <c r="C34">
-        <v>0.36598832426848932</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="B34" t="n">
+        <v>7.060000000000031</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.3659883242684893</v>
+      </c>
+      <c r="D34" s="1" t="n">
         <v>41997</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35">
+      <c r="A35" t="n">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>-9.7600000000000193</v>
-      </c>
-      <c r="C35">
-        <v>0.35500867454043461</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="B35" t="n">
+        <v>-9.760000000000019</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.3550086745404346</v>
+      </c>
+      <c r="D35" s="1" t="n">
         <v>42461</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36">
+      <c r="A36" t="n">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>-110.16</v>
       </c>
-      <c r="C36">
-        <v>0.34435841430422148</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="C36" t="n">
+        <v>0.3443584143042215</v>
+      </c>
+      <c r="D36" s="1" t="n">
         <v>42862</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37">
+      <c r="A37" t="n">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>-1967.22</v>
       </c>
-      <c r="C37">
-        <v>0.33402766187509481</v>
-      </c>
-      <c r="D37" s="1">
+      <c r="C37" t="n">
+        <v>0.3340276618750948</v>
+      </c>
+      <c r="D37" s="1" t="n">
         <v>44470</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38">
+      <c r="A38" t="n">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>114.57</v>
       </c>
-      <c r="C38">
-        <v>0.32400683201884201</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="C38" t="n">
+        <v>0.324006832018842</v>
+      </c>
+      <c r="D38" s="1" t="n">
         <v>43337</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39">
+      <c r="A39" t="n">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>1268.6400000000001</v>
-      </c>
-      <c r="C39">
+      <c r="B39" t="n">
+        <v>1268.64</v>
+      </c>
+      <c r="C39" t="n">
         <v>0.3142866270582767</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="1" t="n">
         <v>44224</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40">
+      <c r="A40" t="n">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>29.970000000000169</v>
-      </c>
-      <c r="C40">
-        <v>0.30485802824652841</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="B40" t="n">
+        <v>29.97000000000017</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.3048580282465284</v>
+      </c>
+      <c r="D40" s="1" t="n">
         <v>44264</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41">
+      <c r="A41" t="n">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>395.70999999999981</v>
-      </c>
-      <c r="C41">
-        <v>0.29571228739913258</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="B41" t="n">
+        <v>395.7099999999998</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.2957122873991326</v>
+      </c>
+      <c r="D41" s="1" t="n">
         <v>44116</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42">
+      <c r="A42" t="n">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>600.5799999999997</v>
       </c>
-      <c r="C42">
-        <v>0.28684091877715862</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="C42" t="n">
+        <v>0.2868409187771586</v>
+      </c>
+      <c r="D42" s="1" t="n">
         <v>42104</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43">
+      <c r="A43" t="n">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>-125.45999999999989</v>
-      </c>
-      <c r="C43">
-        <v>0.27823569121384378</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="B43" t="n">
+        <v>-125.4599999999999</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.2782356912138438</v>
+      </c>
+      <c r="D43" s="1" t="n">
         <v>43574</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44">
+      <c r="A44" t="n">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>6.680000000000021</v>
       </c>
-      <c r="C44">
-        <v>0.26988862047742851</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="C44" t="n">
+        <v>0.2698886204774285</v>
+      </c>
+      <c r="D44" s="1" t="n">
         <v>42382</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45">
+      <c r="A45" t="n">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>-2.730500000000017</v>
       </c>
-      <c r="C45">
-        <v>0.26179196186310572</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="C45" t="n">
+        <v>0.2617919618631057</v>
+      </c>
+      <c r="D45" s="1" t="n">
         <v>41308</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46">
+      <c r="A46" t="n">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>5.8173999999999921</v>
-      </c>
-      <c r="C46">
-        <v>0.25393820300721248</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="B46" t="n">
+        <v>5.817399999999992</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.2539382030072125</v>
+      </c>
+      <c r="D46" s="1" t="n">
         <v>41655</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47">
+      <c r="A47" t="n">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>7.4369999999999941</v>
-      </c>
-      <c r="C47">
+      <c r="B47" t="n">
+        <v>7.436999999999994</v>
+      </c>
+      <c r="C47" t="n">
         <v>0.2463200569169961</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="1" t="n">
         <v>41301</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48">
+      <c r="A48" t="n">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>33.574999999999932</v>
-      </c>
-      <c r="C48">
-        <v>0.23893045520948619</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="B48" t="n">
+        <v>33.57499999999993</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.2389304552094862</v>
+      </c>
+      <c r="D48" s="1" t="n">
         <v>44085</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49">
+      <c r="A49" t="n">
         <v>48</v>
       </c>
-      <c r="B49">
-        <v>1.5820000000000149</v>
-      </c>
-      <c r="C49">
-        <v>0.23176254155320161</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="B49" t="n">
+        <v>1.582000000000015</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.2317625415532016</v>
+      </c>
+      <c r="D49" s="1" t="n">
         <v>41421</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50">
+      <c r="A50" t="n">
         <v>49</v>
       </c>
-      <c r="B50">
-        <v>40.670000000000073</v>
-      </c>
-      <c r="C50">
-        <v>0.22480966530660559</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="B50" t="n">
+        <v>40.67000000000007</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.2248096653066056</v>
+      </c>
+      <c r="D50" s="1" t="n">
         <v>44235</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51">
+      <c r="A51" t="n">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>107.2395999999999</v>
       </c>
-      <c r="C51">
-        <v>0.21806537534740739</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="C51" t="n">
+        <v>0.2180653753474074</v>
+      </c>
+      <c r="D51" s="1" t="n">
         <v>41603</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52">
+      <c r="A52" t="n">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>188.8399999999998</v>
       </c>
-      <c r="C52">
-        <v>0.21152341408698519</v>
-      </c>
-      <c r="D52" s="1">
+      <c r="C52" t="n">
+        <v>0.2115234140869852</v>
+      </c>
+      <c r="D52" s="1" t="n">
         <v>43790</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53">
+      <c r="A53" t="n">
         <v>52</v>
       </c>
-      <c r="B53">
-        <v>5.1050000000000324</v>
-      </c>
-      <c r="C53">
-        <v>0.20517771166437559</v>
-      </c>
-      <c r="D53" s="1">
+      <c r="B53" t="n">
+        <v>5.105000000000032</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.2051777116643756</v>
+      </c>
+      <c r="D53" s="1" t="n">
         <v>42118</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54">
+      <c r="A54" t="n">
         <v>53</v>
       </c>
-      <c r="B54">
-        <v>2.1865000000000059</v>
-      </c>
-      <c r="C54">
-        <v>0.19902238031444441</v>
-      </c>
-      <c r="D54" s="1">
+      <c r="B54" t="n">
+        <v>2.186500000000006</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.1990223803144444</v>
+      </c>
+      <c r="D54" s="1" t="n">
         <v>41376</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55">
+      <c r="A55" t="n">
         <v>54</v>
       </c>
-      <c r="B55">
-        <v>47.330000000000013</v>
-      </c>
-      <c r="C55">
+      <c r="B55" t="n">
+        <v>47.33000000000001</v>
+      </c>
+      <c r="C55" t="n">
         <v>0.193051708905011</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="1" t="n">
         <v>44052</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56">
+      <c r="A56" t="n">
         <v>55</v>
       </c>
-      <c r="B56">
-        <v>-10.884999999999989</v>
-      </c>
-      <c r="C56">
-        <v>0.18726015763786069</v>
-      </c>
-      <c r="D56" s="1">
+      <c r="B56" t="n">
+        <v>-10.88499999999999</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.1872601576378607</v>
+      </c>
+      <c r="D56" s="1" t="n">
         <v>42198</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57">
+      <c r="A57" t="n">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>-15.23999999999995</v>
       </c>
-      <c r="C57">
-        <v>0.18164235290872491</v>
-      </c>
-      <c r="D57" s="1">
+      <c r="C57" t="n">
+        <v>0.1816423529087249</v>
+      </c>
+      <c r="D57" s="1" t="n">
         <v>44187</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58">
+      <c r="A58" t="n">
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>11.065000000000049</v>
-      </c>
-      <c r="C58">
-        <v>0.17619308232146311</v>
-      </c>
-      <c r="D58" s="1">
+      <c r="B58" t="n">
+        <v>11.06500000000005</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.1761930823214631</v>
+      </c>
+      <c r="D58" s="1" t="n">
         <v>44147</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59">
+      <c r="A59" t="n">
         <v>58</v>
       </c>
-      <c r="B59">
-        <v>20.311200000000039</v>
-      </c>
-      <c r="C59">
-        <v>0.17090728985181919</v>
-      </c>
-      <c r="D59" s="1">
+      <c r="B59" t="n">
+        <v>20.31120000000004</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.1709072898518192</v>
+      </c>
+      <c r="D59" s="1" t="n">
         <v>41487</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60">
+      <c r="A60" t="n">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>15.05999999999986</v>
       </c>
-      <c r="C60">
-        <v>0.16578007115626461</v>
-      </c>
-      <c r="D60" s="1">
+      <c r="C60" t="n">
+        <v>0.1657800711562646</v>
+      </c>
+      <c r="D60" s="1" t="n">
         <v>44069</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61">
+      <c r="A61" t="n">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>-185.3000000000001</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>0.1608066690215767</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="1" t="n">
         <v>44494</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62">
+      <c r="A62" t="n">
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>526.28</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>0.1559824689509294</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="1" t="n">
         <v>43975</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63">
+      <c r="A63" t="n">
         <v>62</v>
       </c>
-      <c r="B63">
-        <v>225.99000000000009</v>
-      </c>
-      <c r="C63">
-        <v>0.15130299488240151</v>
-      </c>
-      <c r="D63" s="1">
+      <c r="B63" t="n">
+        <v>225.9900000000001</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.1513029948824015</v>
+      </c>
+      <c r="D63" s="1" t="n">
         <v>43920</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="64">
+      <c r="A64" t="n">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>-12.08999999999989</v>
       </c>
-      <c r="C64">
-        <v>0.14676390503592951</v>
-      </c>
-      <c r="D64" s="1">
+      <c r="C64" t="n">
+        <v>0.1467639050359295</v>
+      </c>
+      <c r="D64" s="1" t="n">
         <v>43550</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="65">
+      <c r="A65" t="n">
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>16.13000000000002</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>0.1423609878848516</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="1" t="n">
         <v>43874</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="66">
+      <c r="A66" t="n">
         <v>65</v>
       </c>
-      <c r="B66">
-        <v>0.73000000000001819</v>
-      </c>
-      <c r="C66">
-        <v>0.13809015824830601</v>
-      </c>
-      <c r="D66" s="1">
+      <c r="B66" t="n">
+        <v>0.7300000000000182</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.138090158248306</v>
+      </c>
+      <c r="D66" s="1" t="n">
         <v>42172</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="67">
+      <c r="A67" t="n">
         <v>66</v>
       </c>
-      <c r="B67">
-        <v>-4.7049999999999983</v>
-      </c>
-      <c r="C67">
-        <v>0.13394745350085691</v>
-      </c>
-      <c r="D67" s="1">
+      <c r="B67" t="n">
+        <v>-4.704999999999998</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.1339474535008569</v>
+      </c>
+      <c r="D67" s="1" t="n">
         <v>41829</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="68">
+      <c r="A68" t="n">
         <v>67</v>
       </c>
-      <c r="B68">
-        <v>-29.510000000000019</v>
-      </c>
-      <c r="C68">
-        <v>0.12992902989583111</v>
-      </c>
-      <c r="D68" s="1">
+      <c r="B68" t="n">
+        <v>-29.51000000000002</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.1299290298958311</v>
+      </c>
+      <c r="D68" s="1" t="n">
         <v>44481</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="69">
+      <c r="A69" t="n">
         <v>68</v>
       </c>
-      <c r="B69">
-        <v>-1.7599999999999909</v>
-      </c>
-      <c r="C69">
+      <c r="B69" t="n">
+        <v>-1.759999999999991</v>
+      </c>
+      <c r="C69" t="n">
         <v>0.1260311589989562</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="1" t="n">
         <v>42435</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="70">
+      <c r="A70" t="n">
         <v>69</v>
       </c>
-      <c r="B70">
-        <v>92.495000000000047</v>
-      </c>
-      <c r="C70">
+      <c r="B70" t="n">
+        <v>92.49500000000005</v>
+      </c>
+      <c r="C70" t="n">
         <v>0.1222502242289875</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="1" t="n">
         <v>41938</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="71">
+      <c r="A71" t="n">
         <v>70</v>
       </c>
-      <c r="B71">
-        <v>39.600000000000108</v>
-      </c>
-      <c r="C71">
-        <v>0.11858271750211789</v>
-      </c>
-      <c r="D71" s="1">
+      <c r="B71" t="n">
+        <v>39.60000000000011</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.1185827175021179</v>
+      </c>
+      <c r="D71" s="1" t="n">
         <v>42760</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="72">
+      <c r="A72" t="n">
         <v>71</v>
       </c>
-      <c r="B72">
-        <v>23.460000000000061</v>
-      </c>
-      <c r="C72">
+      <c r="B72" t="n">
+        <v>23.46000000000006</v>
+      </c>
+      <c r="C72" t="n">
         <v>0.1150252359770543</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="1" t="n">
         <v>42468</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="73">
+      <c r="A73" t="n">
         <v>72</v>
       </c>
-      <c r="B73">
-        <v>-32.849999999999909</v>
-      </c>
-      <c r="C73">
+      <c r="B73" t="n">
+        <v>-32.84999999999991</v>
+      </c>
+      <c r="C73" t="n">
         <v>0.1115744788977427</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="1" t="n">
         <v>43614</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="74">
+      <c r="A74" t="n">
         <v>73</v>
       </c>
-      <c r="B74">
-        <v>33.160999999999987</v>
-      </c>
-      <c r="C74">
+      <c r="B74" t="n">
+        <v>33.16099999999999</v>
+      </c>
+      <c r="C74" t="n">
         <v>0.1082272445308104</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="1" t="n">
         <v>41569</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="75">
+      <c r="A75" t="n">
         <v>74</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>-52.95999999999998</v>
       </c>
-      <c r="C75">
-        <v>0.10498042719488609</v>
-      </c>
-      <c r="D75" s="1">
+      <c r="C75" t="n">
+        <v>0.1049804271948861</v>
+      </c>
+      <c r="D75" s="1" t="n">
         <v>44180</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="76">
+      <c r="A76" t="n">
         <v>75</v>
       </c>
-      <c r="B76">
-        <v>32.765000000000008</v>
-      </c>
-      <c r="C76">
-        <v>0.10183101437903951</v>
-      </c>
-      <c r="D76" s="1">
+      <c r="B76" t="n">
+        <v>32.76500000000001</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.1018310143790395</v>
+      </c>
+      <c r="D76" s="1" t="n">
         <v>43302</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="77">
+      <c r="A77" t="n">
         <v>76</v>
       </c>
-      <c r="B77">
-        <v>9.89</v>
-      </c>
-      <c r="C77">
-        <v>9.8776083947668333E-2</v>
-      </c>
-      <c r="D77" s="1">
+      <c r="B77" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.09877608394766833</v>
+      </c>
+      <c r="D77" s="1" t="n">
         <v>42551</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="78">
+      <c r="A78" t="n">
         <v>77</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>18.78</v>
       </c>
-      <c r="C78">
-        <v>9.8776083947668333E-2</v>
-      </c>
-      <c r="D78" s="1">
+      <c r="C78" t="n">
+        <v>0.09877608394766833</v>
+      </c>
+      <c r="D78" s="1" t="n">
         <v>42342</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="79">
+      <c r="A79" t="n">
         <v>78</v>
       </c>
-      <c r="B79">
-        <v>79.924999999999926</v>
-      </c>
-      <c r="C79">
-        <v>9.8776083947668333E-2</v>
-      </c>
-      <c r="D79" s="1">
+      <c r="B79" t="n">
+        <v>79.92499999999993</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.09877608394766833</v>
+      </c>
+      <c r="D79" s="1" t="n">
         <v>41992</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="80">
+      <c r="A80" t="n">
         <v>79</v>
       </c>
-      <c r="B80">
-        <v>4.7700000000001239</v>
-      </c>
-      <c r="C80">
-        <v>9.8776083947668333E-2</v>
-      </c>
-      <c r="D80" s="1">
+      <c r="B80" t="n">
+        <v>4.770000000000124</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.09877608394766833</v>
+      </c>
+      <c r="D80" s="1" t="n">
         <v>42972</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="81">
+      <c r="A81" t="n">
         <v>80</v>
       </c>
-      <c r="B81">
-        <v>79.700000000000074</v>
-      </c>
-      <c r="C81">
-        <v>9.8776083947668333E-2</v>
-      </c>
-      <c r="D81" s="1">
+      <c r="B81" t="n">
+        <v>79.70000000000007</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.09877608394766833</v>
+      </c>
+      <c r="D81" s="1" t="n">
         <v>44110</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="82">
+      <c r="A82" t="n">
         <v>81</v>
       </c>
-      <c r="B82">
-        <v>5.3069999999999951</v>
-      </c>
-      <c r="C82">
-        <v>9.8776083947668333E-2</v>
-      </c>
-      <c r="D82" s="1">
+      <c r="B82" t="n">
+        <v>5.306999999999995</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.09877608394766833</v>
+      </c>
+      <c r="D82" s="1" t="n">
         <v>41284</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="83">
+      <c r="A83" t="n">
         <v>82</v>
       </c>
-      <c r="B83">
-        <v>-4.7349999999999852</v>
-      </c>
-      <c r="C83">
-        <v>9.8776083947668333E-2</v>
-      </c>
-      <c r="D83" s="1">
+      <c r="B83" t="n">
+        <v>-4.734999999999985</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.09877608394766833</v>
+      </c>
+      <c r="D83" s="1" t="n">
         <v>41861</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="84">
+      <c r="A84" t="n">
         <v>83</v>
       </c>
-      <c r="B84">
-        <v>61.169999999999959</v>
-      </c>
-      <c r="C84">
-        <v>9.8776083947668333E-2</v>
-      </c>
-      <c r="D84" s="1">
+      <c r="B84" t="n">
+        <v>61.16999999999996</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.09877608394766833</v>
+      </c>
+      <c r="D84" s="1" t="n">
         <v>43458</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="85">
+      <c r="A85" t="n">
         <v>84</v>
       </c>
-      <c r="B85">
-        <v>12.010000000000129</v>
-      </c>
-      <c r="C85">
-        <v>9.8776083947668333E-2</v>
-      </c>
-      <c r="D85" s="1">
+      <c r="B85" t="n">
+        <v>12.01000000000013</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.09877608394766833</v>
+      </c>
+      <c r="D85" s="1" t="n">
         <v>42825</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="86">
+      <c r="A86" t="n">
         <v>85</v>
       </c>
-      <c r="B86">
-        <v>1.6749999999999829</v>
-      </c>
-      <c r="C86">
-        <v>9.8776083947668333E-2</v>
-      </c>
-      <c r="D86" s="1">
+      <c r="B86" t="n">
+        <v>1.674999999999983</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.09877608394766833</v>
+      </c>
+      <c r="D86" s="1" t="n">
         <v>41916</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="87">
+      <c r="A87" t="n">
         <v>86</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>-28.32</v>
       </c>
-      <c r="C87">
-        <v>9.8776083947668333E-2</v>
-      </c>
-      <c r="D87" s="1">
+      <c r="C87" t="n">
+        <v>0.09877608394766833</v>
+      </c>
+      <c r="D87" s="1" t="n">
         <v>41411</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="88">
+      <c r="A88" t="n">
         <v>87</v>
       </c>
-      <c r="B88">
-        <v>35.982199999999999</v>
-      </c>
-      <c r="C88">
-        <v>9.8776083947668333E-2</v>
-      </c>
-      <c r="D88" s="1">
+      <c r="B88" t="n">
+        <v>35.9822</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.09877608394766833</v>
+      </c>
+      <c r="D88" s="1" t="n">
         <v>41727</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="89">
+      <c r="A89" t="n">
         <v>88</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>-256.08</v>
       </c>
-      <c r="C89">
-        <v>9.8776083947668333E-2</v>
-      </c>
-      <c r="D89" s="1">
+      <c r="C89" t="n">
+        <v>0.09877608394766833</v>
+      </c>
+      <c r="D89" s="1" t="n">
         <v>43660</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="90">
+      <c r="A90" t="n">
         <v>89</v>
       </c>
-      <c r="B90">
-        <v>323.25760000000002</v>
-      </c>
-      <c r="C90">
-        <v>9.8776083947668333E-2</v>
-      </c>
-      <c r="D90" s="1">
+      <c r="B90" t="n">
+        <v>323.2576</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.09877608394766833</v>
+      </c>
+      <c r="D90" s="1" t="n">
         <v>41795</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="91">
+      <c r="A91" t="n">
         <v>90</v>
       </c>
-      <c r="B91">
-        <v>-4.8800000000002512</v>
-      </c>
-      <c r="C91">
-        <v>9.8776083947668333E-2</v>
-      </c>
-      <c r="D91" s="1">
+      <c r="B91" t="n">
+        <v>-4.880000000000251</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.09877608394766833</v>
+      </c>
+      <c r="D91" s="1" t="n">
         <v>43970</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="92">
+      <c r="A92" t="n">
         <v>91</v>
       </c>
-      <c r="B92">
-        <v>274.38000000000011</v>
-      </c>
-      <c r="C92">
-        <v>9.8776083947668333E-2</v>
-      </c>
-      <c r="D92" s="1">
+      <c r="B92" t="n">
+        <v>274.3800000000001</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.09877608394766833</v>
+      </c>
+      <c r="D92" s="1" t="n">
         <v>42987</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="93">
+      <c r="A93" t="n">
         <v>92</v>
       </c>
-      <c r="B93">
-        <v>65.560000000000059</v>
-      </c>
-      <c r="C93">
-        <v>9.8776083947668333E-2</v>
-      </c>
-      <c r="D93" s="1">
+      <c r="B93" t="n">
+        <v>65.56000000000006</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.09877608394766833</v>
+      </c>
+      <c r="D93" s="1" t="n">
         <v>44271</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="94">
+      <c r="A94" t="n">
         <v>93</v>
       </c>
-      <c r="B94">
-        <v>-53.949999999999932</v>
-      </c>
-      <c r="C94">
-        <v>9.8776083947668333E-2</v>
-      </c>
-      <c r="D94" s="1">
+      <c r="B94" t="n">
+        <v>-53.94999999999993</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.09877608394766833</v>
+      </c>
+      <c r="D94" s="1" t="n">
         <v>43911</v>
       </c>
     </row>
